--- a/bảng phân công bài tập.xlsx
+++ b/bảng phân công bài tập.xlsx
@@ -22,9 +22,6 @@
     <t>Nội dung yêu cầu</t>
   </si>
   <si>
-    <t>Lâm</t>
-  </si>
-  <si>
     <t>Khánh</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>tiến độ</t>
+  </si>
+  <si>
+    <t>Lâm-1412279</t>
   </si>
 </sst>
 </file>
@@ -102,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,13 +166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,14 +483,15 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,16 +502,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -509,14 +519,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -525,14 +535,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -541,14 +551,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -556,19 +566,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.9</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -576,11 +586,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -589,24 +599,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -614,11 +624,11 @@
         <v>7.1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -627,10 +637,10 @@
         <v>7.2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -640,12 +650,12 @@
         <v>7.3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -653,11 +663,11 @@
         <v>7.4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -666,10 +676,10 @@
         <v>7.5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -678,28 +688,28 @@
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8.1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -707,16 +717,16 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/bảng phân công bài tập.xlsx
+++ b/bảng phân công bài tập.xlsx
@@ -169,13 +169,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,12 +521,12 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -537,12 +537,12 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
     </row>
@@ -568,7 +568,7 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -577,7 +577,7 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -611,12 +611,12 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,10 +652,13 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -688,12 +691,12 @@
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">

--- a/bảng phân công bài tập.xlsx
+++ b/bảng phân công bài tập.xlsx
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -713,6 +713,9 @@
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">

--- a/bảng phân công bài tập.xlsx
+++ b/bảng phân công bài tập.xlsx
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
